--- a/Engenharia de software/Matriz de Rastreabilidade dos Requisitos.xlsx
+++ b/Engenharia de software/Matriz de Rastreabilidade dos Requisitos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palli\Documents\GitHub\Rastreabilidade_Produtor_Agricola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palli\Documents\GitHub\Rastreabilidade_Produtor_Agricola\Engenharia de software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D89F8F-EA2B-4961-9816-230B4AB5A3B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0021898C-2D28-48B0-AF7A-55803EBC3F94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Comentários</t>
   </si>
@@ -167,6 +167,21 @@
   </si>
   <si>
     <t>Cati</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1301,9 @@
       <c r="C3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" s="19" t="s">
         <v>31</v>
       </c>
@@ -1313,7 +1330,9 @@
       <c r="C4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="E4" s="19" t="s">
         <v>32</v>
       </c>
@@ -1340,7 +1359,9 @@
       <c r="C5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="E5" s="19" t="s">
         <v>33</v>
       </c>
@@ -1367,7 +1388,9 @@
       <c r="C6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="19" t="s">
         <v>36</v>
       </c>
@@ -1395,7 +1418,9 @@
       <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="E7" s="19" t="s">
         <v>37</v>
       </c>
@@ -1423,8 +1448,10 @@
       <c r="C8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="19" t="s">
